--- a/Assets/_Excel/enemy.xlsx
+++ b/Assets/_Excel/enemy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDevelop\OhMyCard\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDevelop\Project1\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E96F953-8EF3-43A3-B880-D74382C4955C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ABEE086-80F0-432C-BCF8-C3D32EDEE34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,22 @@
   </si>
   <si>
     <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model/Slime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model/Golem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model/TurtleShell</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +411,11 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
@@ -406,8 +425,11 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001</v>
       </c>
@@ -417,8 +439,11 @@
       <c r="C3">
         <v>1</v>
       </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10002</v>
       </c>
@@ -428,8 +453,11 @@
       <c r="C4">
         <v>2</v>
       </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10003</v>
       </c>
